--- a/Config/Datas/herobaseprop.xlsx
+++ b/Config/Datas/herobaseprop.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -46,6 +46,9 @@
     <t>role</t>
   </si>
   <si>
+    <t>race</t>
+  </si>
+  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>character.Role</t>
   </si>
   <si>
+    <t>pawn.Race</t>
+  </si>
+  <si>
     <t>(set#sep=,),string</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>职能</t>
   </si>
   <si>
+    <t>种族</t>
+  </si>
+  <si>
     <t>图标路径</t>
   </si>
   <si>
@@ -112,7 +121,37 @@
     <t>ATTACKER</t>
   </si>
   <si>
+    <t>CANIDAE</t>
+  </si>
+  <si>
     <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>和姬</t>
+  </si>
+  <si>
+    <t>LIGHT</t>
+  </si>
+  <si>
+    <t>SUPPORT</t>
+  </si>
+  <si>
+    <t>RABMOU</t>
+  </si>
+  <si>
+    <t>9,10,11,12</t>
+  </si>
+  <si>
+    <t>善助</t>
+  </si>
+  <si>
+    <t>EARTH</t>
+  </si>
+  <si>
+    <t>GUARD</t>
+  </si>
+  <si>
+    <t>13,14,15,16</t>
   </si>
 </sst>
 </file>
@@ -1044,21 +1083,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="4" max="5" width="16.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="10.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="20.8181818181818" customWidth="1"/>
-    <col min="9" max="9" width="84.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="10.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="10.6363636363636" customWidth="1"/>
+    <col min="9" max="9" width="20.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="84.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,107 +1126,162 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
